--- a/Data/Northwinds Data.xlsx
+++ b/Data/Northwinds Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wieland\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wieland\Desktop\Data Dancing - Test Studio Sample Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{643F8D66-E9F0-46A3-8BB9-CF4CD44BC0CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C1E634-8731-421B-B4F1-99268837DB67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{01F7329C-3684-4FD5-AD0B-75C6EC9A4A9B}"/>
+    <workbookView xWindow="-26280" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{01F7329C-3684-4FD5-AD0B-75C6EC9A4A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Products</t>
   </si>
   <si>
-    <t>Orders</t>
-  </si>
-  <si>
     <t>Beverages</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>Genève</t>
+  </si>
+  <si>
+    <t>City</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,482 +551,482 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
